--- a/public/file/template-excel-payroll/template-import-payroll_V2.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E76C11-975D-4526-A95D-A13654E348BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9110A442-C225-49C2-AD24-27FF34DA437B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>NO</t>
   </si>
@@ -39,12 +39,6 @@
     <t>EMPLOYEE ID</t>
   </si>
   <si>
-    <t>OVERTIME</t>
-  </si>
-  <si>
-    <t>ALLOWANCE POSITION</t>
-  </si>
-  <si>
     <t>SERAGAM</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
     <t>END DATE</t>
   </si>
   <si>
-    <t>210317144</t>
-  </si>
-  <si>
     <t>NAMA</t>
   </si>
   <si>
@@ -72,9 +63,6 @@
     <t>BRANCH CODE</t>
   </si>
   <si>
-    <t>EXP</t>
-  </si>
-  <si>
     <t>BPJS KETENAGAKERJAAN</t>
   </si>
   <si>
@@ -91,6 +79,24 @@
   </si>
   <si>
     <t>DAILY SALARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITION ALLOWANCE </t>
+  </si>
+  <si>
+    <t>MEAL ALLOWANCE/DAY</t>
+  </si>
+  <si>
+    <t>OVERTIME/HOUR</t>
+  </si>
+  <si>
+    <t>TOTAL OVERTIME HOURS</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>KIM</t>
   </si>
 </sst>
 </file>
@@ -142,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,14 +201,11 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -217,8 +226,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,319 +548,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" customWidth="1"/>
-    <col min="17" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
+    <col min="19" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>20</v>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9">
+        <v>90000</v>
+      </c>
+      <c r="E2" s="9">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6">
+        <v>700000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="M2" s="2">
+        <v>15000</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
+        <v>60000</v>
+      </c>
+      <c r="P2" s="2">
+        <v>80000</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>250000</v>
+      </c>
+      <c r="R2" s="2">
+        <v>9000</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45190</v>
+      </c>
+      <c r="T2" s="3">
+        <v>45219</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10">
-        <v>90000</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="7">
-        <v>1150000</v>
-      </c>
-      <c r="J2" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4">
-        <v>45190</v>
-      </c>
-      <c r="R2" s="4">
-        <v>45219</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>15</v>
-      </c>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="8"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="8"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="8"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="8"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="8"/>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="8"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="8"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="8"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="8"/>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/file/template-excel-payroll/template-import-payroll_V2.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9110A442-C225-49C2-AD24-27FF34DA437B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7A7C80-7A7F-4357-BBE7-EAD301F0C0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>NO</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>KIM</t>
+  </si>
+  <si>
+    <t>POTONGAN TERLAMBAT</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,12 +574,13 @@
     <col min="14" max="14" width="21.5703125" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" customWidth="1"/>
     <col min="16" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" customWidth="1"/>
-    <col min="19" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" customWidth="1"/>
+    <col min="19" max="19" width="21.28515625" customWidth="1"/>
+    <col min="20" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,19 +633,22 @@
         <v>9</v>
       </c>
       <c r="R1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -691,20 +698,21 @@
       <c r="Q2" s="2">
         <v>250000</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2">
         <v>9000</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>45190</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>45219</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
       <c r="C3" s="9"/>
@@ -723,11 +731,12 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="3"/>
+      <c r="S3" s="2"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="7"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -746,11 +755,12 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="3"/>
+      <c r="S4" s="2"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="7"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -769,11 +779,12 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="3"/>
+      <c r="S5" s="2"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="7"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -792,11 +803,12 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="3"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="7"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -815,11 +827,12 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="7"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -838,11 +851,12 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
+      <c r="S8" s="2"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="7"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -861,9 +875,10 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
+      <c r="S9" s="2"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="7"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/file/template-excel-payroll/template-import-payroll_V2.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7A7C80-7A7F-4357-BBE7-EAD301F0C0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E21B9B-A081-43AA-ADA6-09D7011D4B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>NO</t>
   </si>
@@ -33,15 +33,9 @@
     <t>KASBON</t>
   </si>
   <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
     <t>EMPLOYEE ID</t>
   </si>
   <si>
-    <t>SERAGAM</t>
-  </si>
-  <si>
     <t>KOPERASI</t>
   </si>
   <si>
@@ -54,12 +48,6 @@
     <t>NAMA</t>
   </si>
   <si>
-    <t>ABSENSI</t>
-  </si>
-  <si>
-    <t>EXAMPLE</t>
-  </si>
-  <si>
     <t>BRANCH CODE</t>
   </si>
   <si>
@@ -69,9 +57,6 @@
     <t>BPJS KESEHATAN</t>
   </si>
   <si>
-    <t>POTONGAN LAIN-LAIN</t>
-  </si>
-  <si>
     <t>INSENTIF</t>
   </si>
   <si>
@@ -93,13 +78,19 @@
     <t>TOTAL OVERTIME HOURS</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>KIM</t>
-  </si>
-  <si>
-    <t>POTONGAN TERLAMBAT</t>
+    <t>POT. ADMIN</t>
+  </si>
+  <si>
+    <t>POT. SERAGAM</t>
+  </si>
+  <si>
+    <t>POT. ABSENSI</t>
+  </si>
+  <si>
+    <t>POT. TERLAMBAT</t>
+  </si>
+  <si>
+    <t>POT.  LAIN-LAIN</t>
   </si>
 </sst>
 </file>
@@ -204,11 +195,8 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -218,23 +206,34 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,16 +550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
@@ -568,317 +567,159 @@
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="23.42578125" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="17" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
     <col min="18" max="18" width="23.42578125" customWidth="1"/>
     <col min="19" max="19" width="21.28515625" customWidth="1"/>
-    <col min="20" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="15" customWidth="1"/>
+    <col min="21" max="21" width="15" style="15" customWidth="1"/>
     <col min="22" max="22" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="11" t="s">
+      <c r="T1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9">
-        <v>90000</v>
-      </c>
-      <c r="E2" s="9">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="2">
-        <v>100000</v>
-      </c>
-      <c r="I2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="J2" s="2">
-        <v>15</v>
-      </c>
-      <c r="K2" s="6">
-        <v>700000</v>
-      </c>
-      <c r="L2" s="2">
-        <v>5000</v>
-      </c>
-      <c r="M2" s="2">
-        <v>15000</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2">
-        <v>60000</v>
-      </c>
-      <c r="P2" s="2">
-        <v>80000</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>250000</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2">
-        <v>9000</v>
-      </c>
-      <c r="T2" s="3">
-        <v>45190</v>
-      </c>
-      <c r="U2" s="3">
-        <v>45219</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="7"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="7"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="7"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/file/template-excel-payroll/template-import-payroll_V2.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E21B9B-A081-43AA-ADA6-09D7011D4B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE177B11-7E05-43DA-B7D0-6D7E2B2C6DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>NO</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>POT.  LAIN-LAIN</t>
+  </si>
+  <si>
+    <t>POT. HIJAB</t>
+  </si>
+  <si>
+    <t>POT. MATERAI</t>
   </si>
 </sst>
 </file>
@@ -550,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,14 +580,14 @@
     <col min="15" max="15" width="17.140625" customWidth="1"/>
     <col min="16" max="16" width="18.5703125" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" customWidth="1"/>
-    <col min="19" max="19" width="21.28515625" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="15" customWidth="1"/>
-    <col min="21" max="21" width="15" style="15" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
+    <col min="18" max="20" width="23.42578125" customWidth="1"/>
+    <col min="21" max="21" width="21.28515625" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="15" customWidth="1"/>
+    <col min="23" max="23" width="15" style="15" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -637,19 +643,25 @@
         <v>20</v>
       </c>
       <c r="S1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="6"/>
@@ -669,11 +681,13 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="5"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="6"/>
@@ -693,11 +707,13 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="5"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -717,9 +733,11 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="5"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
